--- a/biology/Biochimie/Coenzyme_Q-cytochrome_c_réductase/Coenzyme_Q-cytochrome_c_réductase.xlsx
+++ b/biology/Biochimie/Coenzyme_Q-cytochrome_c_réductase/Coenzyme_Q-cytochrome_c_réductase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Coenzyme_Q-cytochrome_c_r%C3%A9ductase</t>
+          <t>Coenzyme_Q-cytochrome_c_réductase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La coenzyme Q-cytochrome c réductase, ou complexe III de la chaîne respiratoire, également appelée complexe bc1, est une oxydoréductase membranaire qui catalyse la réaction :
 ubiquinol + 2 ferricytochrome c + 2 H+matriciel  
@@ -498,7 +510,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Coenzyme_Q-cytochrome_c_r%C3%A9ductase</t>
+          <t>Coenzyme_Q-cytochrome_c_réductase</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -516,10 +528,12 @@
           <t>Structure et fonctionnement</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le complexe III rassemble plusieurs protéines : un cytochrome c1, deux cytochromes b, et une ferrédoxine de type Rieske. L'enzyme elle-même d'un nombre relativement restreint de sous-unités comparé aux autres enzymes respiratoires : il peut n'y en avoir que trois, mais les animaux supérieurs peuvent en compter onze[2]. Trois de ces sous-unités possèdent des groupes prosthétiques. Le cytochrome b possède deux hèmes, notés bL et bH, tandis que le cytochrome c1 en possède un, noté c1, et que la protéine de Rieske possède deux clusters fer-soufre [2Fe-2S].
-Le mécanisme réactionnel du complexe III est appelé cycle Q[3],[4], en référence à l'ubiquinone. Chaque cycle a pour effet de libérer quatre protons dans l'espace intermembranaire mitochondrial mais de n'en absorber que deux issus de la matrice mitochondriale. Ceci contribue à la génération d'un gradient de concentration de protons à travers la membrane mitochondriale interne. Dans le même temps, deux molécules d'ubiquinol sont oxydées en ubiquinone, tandis qu'une molécule d'ubiquinone est réduite en ubiquinol et que deux électrons sont transférés à deux cytochromes c.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le complexe III rassemble plusieurs protéines : un cytochrome c1, deux cytochromes b, et une ferrédoxine de type Rieske. L'enzyme elle-même d'un nombre relativement restreint de sous-unités comparé aux autres enzymes respiratoires : il peut n'y en avoir que trois, mais les animaux supérieurs peuvent en compter onze. Trois de ces sous-unités possèdent des groupes prosthétiques. Le cytochrome b possède deux hèmes, notés bL et bH, tandis que le cytochrome c1 en possède un, noté c1, et que la protéine de Rieske possède deux clusters fer-soufre [2Fe-2S].
+Le mécanisme réactionnel du complexe III est appelé cycle Q en référence à l'ubiquinone. Chaque cycle a pour effet de libérer quatre protons dans l'espace intermembranaire mitochondrial mais de n'en absorber que deux issus de la matrice mitochondriale. Ceci contribue à la génération d'un gradient de concentration de protons à travers la membrane mitochondriale interne. Dans le même temps, deux molécules d'ubiquinol sont oxydées en ubiquinone, tandis qu'une molécule d'ubiquinone est réduite en ubiquinol et que deux électrons sont transférés à deux cytochromes c.
 Le cycle Q se déroule en deux temps :
 Premier temps :
 Une première molécule d'ubiquinol Q10H2 se lie au site Qo du cytochrome b tandis que de l'ubiquinone CoQ10 se lie au site Qi.
@@ -543,7 +557,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Coenzyme_Q-cytochrome_c_r%C3%A9ductase</t>
+          <t>Coenzyme_Q-cytochrome_c_réductase</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -561,7 +575,9 @@
           <t>Inhibiteurs</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">L'antimycine A est un inhibiteur qui se lie au site Qi du cytochrome b, ce qui bloque la chaîne de transport d'électrons intramoléculaire aboutissant à la réduction de l'ubiquinone du site Qi en ubiquinol.
 Le myxothiazole (en) et la stigmatelline (en) sont des inhibiteurs qui se lient au site Qo du cytochrome b, ce qui bloque le transfert des électrons de l'ubiquinol à la protéine de Rieske. Le myxothiazole se lie à proximité du cytochrome bL, d'où le qualificatif d'inhibiteur proximal ; le site de liaison à la stigmatelline est plus éloigné de l'hème bL mais est plus proche de la protéine de Rieske, avec laquelle elle interagit fortement.
